--- a/classification/droptc/drone-sbert/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/drone-sbert/freeze/43782163/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9505369067192078</v>
+        <v>0.9859615564346313</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4271504580974579</v>
+        <v>0.9615447521209717</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7829664945602417</v>
+        <v>0.9858686923980713</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9890162348747253</v>
+        <v>0.8427731394767761</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9879572987556458</v>
+        <v>0.9836176633834839</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9874663949012756</v>
+        <v>0.9880114197731018</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9852632284164429</v>
+        <v>0.9850751161575317</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8655328750610352</v>
+        <v>0.4237455725669861</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985321581363678</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7754530310630798</v>
+        <v>0.9880114197731018</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9866385459899902</v>
+        <v>0.6985531449317932</v>
       </c>
     </row>
     <row r="13">
@@ -791,14 +791,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9868871569633484</v>
+        <v>0.4347203969955444</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9475899338722229</v>
+        <v>0.8611083030700684</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9395914673805237</v>
+        <v>0.9859880805015564</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9883785843849182</v>
+        <v>0.9869428873062134</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9482904076576233</v>
+        <v>0.9875993728637695</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8818218111991882</v>
+        <v>0.9838348627090454</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5432851910591125</v>
+        <v>0.9549307227134705</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.988922119140625</v>
+        <v>0.9852557182312012</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9865812063217163</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3950757682323456</v>
+        <v>0.9851598739624023</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9889397025108337</v>
+        <v>0.9110308289527893</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9875895380973816</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9887258410453796</v>
+        <v>0.9837232828140259</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9866306185722351</v>
       </c>
     </row>
     <row r="27">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6324911713600159</v>
+        <v>0.9852364063262939</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.957668125629425</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9851491451263428</v>
+        <v>0.9881383776664734</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9850693345069885</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.8534704446792603</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9893769025802612</v>
+        <v>0.8678631186485291</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9894989728927612</v>
+        <v>0.9880929589271545</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9875233769416809</v>
+        <v>0.9218387603759766</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9494016170501709</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8716369867324829</v>
+        <v>0.9874952435493469</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9880736470222473</v>
+        <v>0.9228134751319885</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9853188991546631</v>
+        <v>0.9875734448432922</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9883592128753662</v>
+        <v>0.9435156583786011</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9894773364067078</v>
+        <v>0.925348162651062</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9865146279335022</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9464885592460632</v>
+        <v>0.5235063433647156</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.937646746635437</v>
+        <v>0.8579881191253662</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9513788819313049</v>
+        <v>0.987247109413147</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9877004623413086</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9882395267486572</v>
+        <v>0.9867076873779297</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9879441261291504</v>
+        <v>0.9868239164352417</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9886385798454285</v>
+        <v>0.9809154868125916</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9866325855255127</v>
+        <v>0.9176531434059143</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5461409687995911</v>
+        <v>0.9867614507675171</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9874454736709595</v>
+        <v>0.9567571878433228</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9578818082809448</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9881711006164551</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9867074489593506</v>
+        <v>0.9506032466888428</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9883460402488708</v>
+        <v>0.9183599352836609</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.943571925163269</v>
+        <v>0.9865685701370239</v>
       </c>
     </row>
     <row r="57">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9883434176445007</v>
+        <v>0.7614213824272156</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9887077808380127</v>
+        <v>0.9851968288421631</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9854432344436646</v>
+        <v>0.9552956819534302</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9350041747093201</v>
+        <v>0.9849322438240051</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9874546527862549</v>
+        <v>0.9880537390708923</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9451481699943542</v>
+        <v>0.9869375824928284</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.4913253486156464</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9476418495178223</v>
+        <v>0.9582045078277588</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9893704652786255</v>
+        <v>0.9857761263847351</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9883667826652527</v>
+        <v>0.9850139021873474</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9851995706558228</v>
+        <v>0.9865354895591736</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.818044126033783</v>
+        <v>0.4851834774017334</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9764246940612793</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.988482654094696</v>
+        <v>0.9851896166801453</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9876264929771423</v>
+        <v>0.4640335738658905</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9875367283821106</v>
+        <v>0.9864811897277832</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9866885542869568</v>
+        <v>0.9850789308547974</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.9873363375663757</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9894233345985413</v>
+        <v>0.9549981355667114</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9310824871063232</v>
+        <v>0.9878697991371155</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.910664975643158</v>
+        <v>0.9880462884902954</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9290048480033875</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9851906895637512</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9888325929641724</v>
+        <v>0.8684206008911133</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9439972639083862</v>
+        <v>0.9836176633834839</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3521118760108948</v>
+        <v>0.7197805643081665</v>
       </c>
     </row>
     <row r="83">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9873726963996887</v>
+        <v>0.6682500839233398</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9866487383842468</v>
+        <v>0.9872980117797852</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7853519916534424</v>
+        <v>0.9869294166564941</v>
       </c>
     </row>
     <row r="86">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9866513013839722</v>
+        <v>0.9607667326927185</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9895265102386475</v>
+        <v>0.9869382381439209</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.9283345341682434</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9867333769798279</v>
+        <v>0.9869316220283508</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9227633476257324</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9883435964584351</v>
+        <v>0.9138544201850891</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9879781007766724</v>
+        <v>0.8675078153610229</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9880279302597046</v>
+        <v>0.9883332848548889</v>
       </c>
     </row>
     <row r="94">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6339196562767029</v>
+        <v>0.986940324306488</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9394904971122742</v>
+        <v>0.3208087384700775</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7491223216056824</v>
+        <v>0.9836140871047974</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9846131801605225</v>
+        <v>0.9873796701431274</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9391817450523376</v>
+        <v>0.9110308289527893</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5038356781005859</v>
+        <v>0.9252769351005554</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.988922119140625</v>
+        <v>0.985174834728241</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9504090547561646</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.98799067735672</v>
+        <v>0.985089898109436</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9862052798271179</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.988260805606842</v>
+        <v>0.9501312375068665</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9883295297622681</v>
+        <v>0.9858857393264771</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9887980818748474</v>
+        <v>0.9343611001968384</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7852147221565247</v>
+        <v>0.7143723964691162</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8476319313049316</v>
+        <v>0.9867402911186218</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.98911052942276</v>
+        <v>0.9862568974494934</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9578818082809448</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9879680871963501</v>
+        <v>0.5030707120895386</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9875264763832092</v>
+        <v>0.8492414355278015</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9882307052612305</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8823466300964355</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6218952536582947</v>
+        <v>0.9853421449661255</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.987995445728302</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7826108336448669</v>
+        <v>0.988148033618927</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9886379837989807</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9881298542022705</v>
+        <v>0.9602330327033997</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9888995885848999</v>
+        <v>0.8966575264930725</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9879706501960754</v>
+        <v>0.983497142791748</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5637888312339783</v>
+        <v>0.955119788646698</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9867939352989197</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9444196224212646</v>
+        <v>0.9866500496864319</v>
       </c>
     </row>
     <row r="125">
@@ -3927,14 +3927,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9867044687271118</v>
+        <v>0.8597842454910278</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9552956819534302</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9866901636123657</v>
+        <v>0.9830104112625122</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.8492066264152527</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9874146580696106</v>
+        <v>0.9538366794586182</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9863905906677246</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9872776865959167</v>
+        <v>0.9605899453163147</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9893398880958557</v>
+        <v>0.9115023612976074</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9865825772285461</v>
+        <v>0.9582045078277588</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9867559671401978</v>
+        <v>0.9879099130630493</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8830226063728333</v>
+        <v>0.9183599352836609</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9805886149406433</v>
+        <v>0.9851963520050049</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9505507946014404</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7851717472076416</v>
+        <v>0.9296987652778625</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9883621335029602</v>
+        <v>0.9289769530296326</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9855276346206665</v>
+        <v>0.9882131218910217</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9859912991523743</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.941521167755127</v>
+        <v>0.9835548996925354</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9885486364364624</v>
+        <v>0.9870610237121582</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9792039394378662</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9895833730697632</v>
+        <v>0.9869158267974854</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9870548248291016</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9340145587921143</v>
+        <v>0.9588387608528137</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9868173003196716</v>
+        <v>0.9851138591766357</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9835909008979797</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9327421188354492</v>
+        <v>0.9574988484382629</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9875333309173584</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.8492066264152527</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9871565103530884</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9895263910293579</v>
+        <v>0.9808282256126404</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9893552660942078</v>
+        <v>0.9233208298683167</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9891949892044067</v>
+        <v>0.9851963520050049</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9882071614265442</v>
+        <v>0.9876201748847961</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="159">
@@ -4879,14 +4879,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9883601665496826</v>
+        <v>0.9595080018043518</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9438416361808777</v>
+        <v>0.986611008644104</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9827238917350769</v>
+        <v>0.9874201416969299</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9888898134231567</v>
+        <v>0.985929548740387</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9357576370239258</v>
+        <v>0.9864891767501831</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9385473728179932</v>
+        <v>0.9859758019447327</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9868118166923523</v>
+        <v>0.9558621644973755</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9853410124778748</v>
+        <v>0.9609420299530029</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9881209135055542</v>
+        <v>0.9808354377746582</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9491302967071533</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9019412994384766</v>
+        <v>0.9875110387802124</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.988243043422699</v>
+        <v>0.9875333309173584</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9867096543312073</v>
+        <v>0.9860411286354065</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.98272705078125</v>
+        <v>0.9860919117927551</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.988925039768219</v>
+        <v>0.9869499802589417</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9881906509399414</v>
+        <v>0.9872207045555115</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9875022172927856</v>
+        <v>0.9868673086166382</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.9874541759490967</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.924184262752533</v>
+        <v>0.9552956819534302</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.9836576581001282</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9879789352416992</v>
+        <v>0.9851683378219604</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9874632358551025</v>
+        <v>0.860617995262146</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9892356991767883</v>
+        <v>0.8510838747024536</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.8492066264152527</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4209804534912109</v>
+        <v>0.8682328462600708</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9889602661132812</v>
+        <v>0.9549981355667114</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9779716730117798</v>
+        <v>0.9877678751945496</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9372599720954895</v>
+        <v>0.82697594165802</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6055073738098145</v>
+        <v>0.9865095019340515</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9881068468093872</v>
+        <v>0.985116183757782</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9884846806526184</v>
+        <v>0.9834432005882263</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9524835348129272</v>
+        <v>0.9331014156341553</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9876691699028015</v>
+        <v>0.9578647613525391</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9880800843238831</v>
+        <v>0.987467348575592</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9401558041572571</v>
+        <v>0.9852696061134338</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9879705309867859</v>
+        <v>0.9860349893569946</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9887945652008057</v>
+        <v>0.9835557341575623</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9859851598739624</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9294271469116211</v>
+        <v>0.9866011738777161</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9874788522720337</v>
+        <v>0.8242791891098022</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.775861382484436</v>
+        <v>0.9865422248840332</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3186626434326172</v>
+        <v>0.9868888854980469</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9851963520050049</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9874300360679626</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9887024164199829</v>
+        <v>0.9582045078277588</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9403328895568848</v>
+        <v>0.985116183757782</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9503456354141235</v>
+        <v>0.8492414355278015</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9888717532157898</v>
+        <v>0.8297542333602905</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9874962568283081</v>
+        <v>0.9850361347198486</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9337078928947449</v>
+        <v>0.9859740138053894</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9827663898468018</v>
+        <v>0.350661963224411</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9888618588447571</v>
+        <v>0.9867247343063354</v>
       </c>
     </row>
   </sheetData>
